--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1321796.171386044</v>
+        <v>1373098.50543659</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.857558489</v>
+        <v>612367.9462114748</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7101250.345432943</v>
+        <v>7596287.287747215</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>57.06768457289404</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>116.019853058236</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>7.232857252670311</v>
+        <v>70.60344219155097</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>346.1714995899598</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.55963221320378</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1066,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>130.774426990978</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>247.3818035383296</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.6296692962677</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407056</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396353</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855916</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>165.4940696953554</v>
+        <v>353.9145207250131</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1537,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610192</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1585,13 +1587,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>99.1885180460939</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1610,22 +1612,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>328.758014576625</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>101.3307376196623</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>237.2795373799636</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1850,13 +1852,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2011,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>86.39942580680147</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.24726165657922</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271525</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486145</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.872939992494</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>44.46305123648278</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2539,10 +2541,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>142.3668648089844</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>55.8145018883579</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>44.02406136249685</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2761,16 +2763,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3010,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
-        <v>177.6947763880048</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3241,16 +3243,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>24.43802729683371</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>213.8764542074655</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>63.30483855756755</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3721,13 +3723,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.99641342857901</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3749,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3898,19 +3900,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>38.96668593296179</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3989,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4025,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>194.3651134784227</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4144,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -4183,19 +4185,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>109.826847404852</v>
+        <v>227.635750397087</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>938.0105478030287</v>
+        <v>456.8988997477843</v>
       </c>
       <c r="C2" t="n">
-        <v>511.1098178163287</v>
+        <v>434.0385738014885</v>
       </c>
       <c r="D2" t="n">
-        <v>87.81719700132894</v>
+        <v>414.7863570268929</v>
       </c>
       <c r="E2" t="n">
-        <v>65.88066118959054</v>
+        <v>392.8498212151545</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>371.7660434449588</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>371.4673850748114</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="L2" t="n">
-        <v>572.914647509062</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="M2" t="n">
-        <v>572.914647509062</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="N2" t="n">
-        <v>1123.5801824935</v>
+        <v>880.2445183516412</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>882.5260259873579</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
-        <v>2167.26712663117</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>2167.26712663117</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>2167.26712663117</v>
+        <v>1351.458990130058</v>
       </c>
       <c r="V2" t="n">
-        <v>2167.26712663117</v>
+        <v>993.9695752563071</v>
       </c>
       <c r="W2" t="n">
-        <v>1770.875776931517</v>
+        <v>597.5782255566539</v>
       </c>
       <c r="X2" t="n">
-        <v>1763.196182139669</v>
+        <v>589.8986307648053</v>
       </c>
       <c r="Y2" t="n">
-        <v>1357.858912094559</v>
+        <v>472.7068599989103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>92.07822853000785</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>659.4347056307208</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K3" t="n">
-        <v>659.4347056307208</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="L3" t="n">
-        <v>659.4347056307208</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="M3" t="n">
-        <v>659.4347056307208</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="N3" t="n">
-        <v>659.4347056307208</v>
+        <v>425.3664405251914</v>
       </c>
       <c r="O3" t="n">
-        <v>1210.100240615159</v>
+        <v>904.3053647676196</v>
       </c>
       <c r="P3" t="n">
-        <v>1760.765775599597</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>558.9552516858391</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="C4" t="n">
-        <v>386.9826885647551</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="D4" t="n">
-        <v>223.6659156915258</v>
+        <v>691.7023242493884</v>
       </c>
       <c r="E4" t="n">
-        <v>216.3599992746871</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>44.49822504924753</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>44.49822504924753</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924753</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734062</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792433</v>
+        <v>322.7210647223126</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>677.4103860167334</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>911.5879131381719</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1289.079424014208</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1644.507552693971</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>2054.776204981511</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T4" t="n">
-        <v>2054.776204981511</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1774.591756481816</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="V4" t="n">
-        <v>1492.880289089845</v>
+        <v>1129.871500950105</v>
       </c>
       <c r="W4" t="n">
-        <v>1218.027885262358</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="X4" t="n">
-        <v>975.4639887081627</v>
+        <v>855.0190971226177</v>
       </c>
       <c r="Y4" t="n">
-        <v>749.1212203979047</v>
+        <v>855.0190971226177</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>533.9701437626245</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>107.0694137759246</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>87.81719700132894</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4565,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>116.829168004879</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1218.160237973755</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2120.543958335517</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2120.543958335517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1770.875776931517</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.155778099264</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.8185080541546</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>874.3078922751886</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>1424.973427259627</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>1424.973427259627</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7067844524004</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1774.591756481815</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1492.880289089844</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1218.027885262357</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>975.4639887081618</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>975.4639887081618</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>379.8103493568968</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>356.950023410601</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>337.6978066360053</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>315.7612708242669</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>294.6774930540712</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>294.3788346839239</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4838,16 +4840,16 @@
         <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>800.9555796531324</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>395.6183096080227</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>205.6899987133984</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>756.3555336978366</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
         <v>1307.021068682275</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1943.199785070404</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1668.347381242917</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1425.783484688723</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2077.956753343679</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1651.056023356979</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1227.76340254198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>801.7864626898374</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>801.7864626898374</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136877</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>1269.301153779694</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>2069.742766177497</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>2778.022045335425</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3234.107524839608</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712749</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757382</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353794</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2483.294023388789</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2483.294023388789</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2483.294023388789</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2077.956753343679</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M12" t="n">
-        <v>1136.821252174186</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N12" t="n">
-        <v>1873.369781077302</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1865.134488569909</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="C13" t="n">
-        <v>1865.134488569909</v>
+        <v>608.0932463474637</v>
       </c>
       <c r="D13" t="n">
-        <v>1701.81771569668</v>
+        <v>444.7764734742344</v>
       </c>
       <c r="E13" t="n">
-        <v>1535.609509849533</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="F13" t="n">
-        <v>1363.747735624094</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="G13" t="n">
-        <v>1197.490765918326</v>
+        <v>278.5682676270879</v>
       </c>
       <c r="H13" t="n">
-        <v>1053.69449742648</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>1053.69449742648</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>1111.185825650638</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>1337.713426856475</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>1692.402748150896</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>2083.588543121147</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>2461.080053997182</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2816.508182676946</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>3107.107394598846</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>3234.107524839608</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>3187.068911526781</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>3187.068911526781</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2943.729563752681</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2663.545115252985</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>2381.833647861014</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>2381.833647861014</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>2281.643225592233</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y13" t="n">
-        <v>2055.300457281975</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1121.530061612109</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>694.6293316254089</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>694.6293316254089</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>362.5505290227574</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5505290227574</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>362.5505290227574</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>344.074177682417</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1059.582485657916</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L14" t="n">
-        <v>1860.024098055719</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M14" t="n">
-        <v>1860.024098055719</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N14" t="n">
-        <v>1860.024098055719</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O14" t="n">
-        <v>2660.465710453522</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>2660.465710453522</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480654</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2754.827044480654</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2358.435694781001</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>1946.715695948748</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>1541.378425903639</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L15" t="n">
-        <v>356.7304516410009</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M15" t="n">
-        <v>356.7304516410009</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="N15" t="n">
-        <v>356.7304516410009</v>
+        <v>939.4897558901635</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.8332607165451</v>
+        <v>686.6827951484273</v>
       </c>
       <c r="C16" t="n">
-        <v>399.860697595461</v>
+        <v>514.7102320273433</v>
       </c>
       <c r="D16" t="n">
-        <v>236.5439247222317</v>
+        <v>514.7102320273433</v>
       </c>
       <c r="E16" t="n">
-        <v>236.5439247222317</v>
+        <v>514.7102320273433</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68215049679216</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679216</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S16" t="n">
-        <v>2027.921517116229</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="T16" t="n">
-        <v>1784.582169342129</v>
+        <v>1992.337779732034</v>
       </c>
       <c r="U16" t="n">
-        <v>1544.905868958327</v>
+        <v>1712.153331232338</v>
       </c>
       <c r="V16" t="n">
-        <v>1263.194401566356</v>
+        <v>1430.441863840367</v>
       </c>
       <c r="W16" t="n">
-        <v>988.3419977388687</v>
+        <v>1155.58946001288</v>
       </c>
       <c r="X16" t="n">
-        <v>988.3419977388687</v>
+        <v>913.0255634586853</v>
       </c>
       <c r="Y16" t="n">
-        <v>761.9992294286108</v>
+        <v>686.6827951484273</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5500,10 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5522,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4935.721337874071</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,19 +5591,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>771.3692302638476</v>
+        <v>759.8870954416615</v>
       </c>
       <c r="C19" t="n">
-        <v>599.3966671427636</v>
+        <v>587.9145323205775</v>
       </c>
       <c r="D19" t="n">
-        <v>599.3966671427636</v>
+        <v>587.9145323205775</v>
       </c>
       <c r="E19" t="n">
-        <v>599.3966671427636</v>
+        <v>587.9145323205775</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>416.0527580951378</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>249.79578838937</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5674,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358269</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302477</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T19" t="n">
-        <v>1992.33777973203</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="U19" t="n">
-        <v>1712.153331232334</v>
+        <v>1785.357631525573</v>
       </c>
       <c r="V19" t="n">
-        <v>1430.441863840363</v>
+        <v>1503.646164133601</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.441863840363</v>
+        <v>1228.793760306114</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.877967286168</v>
+        <v>986.2298637519194</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.5351989759132</v>
+        <v>759.8870954416615</v>
       </c>
     </row>
     <row r="20">
@@ -5753,10 +5755,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>464.9061722227241</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
         <v>2011.818868109901</v>
@@ -5789,10 +5791,10 @@
         <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5835,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>102.3027134058285</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1022.167063056836</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2237.803567852813</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1956.092100460842</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1681.239696633355</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1438.67580007916</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1212.333031768902</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1021.509065974867</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1021.509065974867</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>841.6494985835419</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>841.6494985835419</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>678.3327257103126</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>512.1245198631661</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6175,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>841.6494985835419</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>739.6560874287652</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>966.867243648119</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>794.894680527035</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>750.4259316760281</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2177258288816</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
         <v>412.355951603442</v>
@@ -6409,25 +6411,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1992.33777973203</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1710.626312340059</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="W28" t="n">
-        <v>1435.773908512572</v>
+        <v>1267.165879923986</v>
       </c>
       <c r="X28" t="n">
-        <v>1193.210011958377</v>
+        <v>1024.601983369791</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.867243648119</v>
+        <v>798.2592150595328</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>606.6296631841825</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>606.6296631841825</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.628073325703</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>1023.138400206506</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>796.7956318962481</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076927</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982686</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6977,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,19 +7013,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
-        <v>939.1015214887346</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7120,25 +7122,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7150,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7217,7 +7219,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>648.2727960958064</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>476.3002329747223</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>476.3002329747223</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>476.3002329747223</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
-        <v>476.3002329747223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0432632689545</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>166.2469947771089</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>1064.78153311813</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>838.4387648078721</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1745.191503561186</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.290773574486</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D41" t="n">
-        <v>894.9981527594859</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E41" t="n">
-        <v>469.0212129073435</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>427.2856093136876</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1142.793917289187</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1142.793917289187</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>1142.793917289187</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N41" t="n">
-        <v>1269.301153779694</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O41" t="n">
-        <v>2069.742766177496</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>2778.022045335424</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3013.181953884241</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.181953884241</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3013.181953884241</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2616.790604184587</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2205.070605352334</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1799.733335307225</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.12879345870398</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.12879345870398</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="K42" t="n">
-        <v>72.12879345870398</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="L42" t="n">
-        <v>72.12879345870398</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="M42" t="n">
-        <v>356.7304516410011</v>
+        <v>357.5299206506891</v>
       </c>
       <c r="N42" t="n">
-        <v>356.7304516410011</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1157.172064038804</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>709.9139357930745</v>
+        <v>3751.878227437044</v>
       </c>
       <c r="C43" t="n">
-        <v>709.9139357930745</v>
+        <v>3579.90566431596</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5971629198452</v>
+        <v>3416.588891442731</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5971629198452</v>
+        <v>3250.380685595584</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886378</v>
+        <v>3078.518911370144</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679215</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S43" t="n">
-        <v>2205.734889088747</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T43" t="n">
-        <v>2205.734889088747</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U43" t="n">
-        <v>1925.550440589051</v>
+        <v>4591.611874017632</v>
       </c>
       <c r="V43" t="n">
-        <v>1643.83897319708</v>
+        <v>4443.239368286854</v>
       </c>
       <c r="W43" t="n">
-        <v>1368.986569369593</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="X43" t="n">
-        <v>1126.422672815398</v>
+        <v>4168.386964459367</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.0799045051401</v>
+        <v>3942.044196149109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1800.873494217763</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>1373.972764231063</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>950.6801434160632</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>524.7032035639207</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>99.57902175332094</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>99.57902175332094</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679215</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>64.68215049679215</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>865.123762894595</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>1665.565375292398</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>2069.742766177496</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>2778.022045335424</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>3234.107524839607</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>3234.107524839607</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3037.779127386655</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.779127386655</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2626.059128554402</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2220.721858509293</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3313.894682672831</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="L45" t="n">
-        <v>865.123762894595</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="M45" t="n">
-        <v>865.123762894595</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="N45" t="n">
-        <v>865.123762894595</v>
+        <v>3509.456675241458</v>
       </c>
       <c r="O45" t="n">
-        <v>1409.224304214523</v>
+        <v>4398.937953252929</v>
       </c>
       <c r="P45" t="n">
-        <v>1409.224304214523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1147.863273021029</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2198.056564597094</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2198.056564597094</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U46" t="n">
-        <v>1917.872116097398</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V46" t="n">
-        <v>1917.872116097398</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W46" t="n">
-        <v>1806.935906597548</v>
+        <v>1310.556163447995</v>
       </c>
       <c r="X46" t="n">
-        <v>1564.372010043353</v>
+        <v>1067.9922668938</v>
       </c>
       <c r="Y46" t="n">
-        <v>1338.029241733095</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7988,19 +7990,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>39.69551252341471</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>266.2788756958125</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>412.9692391190645</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
@@ -8070,10 +8072,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>505.5475323587966</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517321</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8143,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>259.1183965798076</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8234,10 +8236,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>372.8619081923508</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>177.813198534673</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8693,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>165.064710198595</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659261</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>397.6042905607445</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
-        <v>831.6236617222301</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>765.3314412469919</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>311.6341283599551</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>500.1648957193109</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>317.5133706982788</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.6987709321243</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9401,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9723,22 +9725,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>951.5880457335786</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>666.8880674041833</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9975,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>855.4509062314407</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1003.048909524252</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10917,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11063,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N41" t="n">
-        <v>165.0647101985943</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11081,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766268</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11145,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>310.5732029186887</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>445.6509501490531</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,13 +11390,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>572.7683961059874</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>188.4204510296576</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500715</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>140.949739542559</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>92.95915587699602</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.81241886352291</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.10306663473517</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>83.74373067638371</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.11104415034794</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>232.919552778216</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.71247581817096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>132.4498071365871</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>117.6595437820001</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
-        <v>62.44348120064808</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>247.6658524923784</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65.01789851058589</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>35.46604401955923</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>361.6534672200357</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>129.4670110730947</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>159.5494072465903</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.2643090249419</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26071,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>162.2770323843601</v>
+        <v>44.46812939212515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642801.3106682117</v>
+        <v>637600.2275799653</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>491037.2576827548</v>
+        <v>662243.1969233358</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>491037.2576827548</v>
+        <v>662243.1969233358</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>662243.1969233358</v>
+        <v>662243.1969233357</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662243.1969233358</v>
+        <v>662243.1969233359</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>491037.2576827548</v>
+        <v>662243.1969233358</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>491037.2576827548</v>
+        <v>662243.1969233359</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083725</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>312571.8840020595</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020595</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="G2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="H2" t="n">
         <v>421522.8023530853</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>421522.8023530854</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421522.8023530856</v>
+      </c>
+      <c r="L2" t="n">
         <v>421522.8023530855</v>
       </c>
-      <c r="J2" t="n">
-        <v>421522.8023530852</v>
-      </c>
-      <c r="K2" t="n">
-        <v>421522.8023530851</v>
-      </c>
-      <c r="L2" t="n">
-        <v>421522.8023530854</v>
-      </c>
       <c r="M2" t="n">
-        <v>421522.8023530851</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="N2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="O2" t="n">
-        <v>312571.8840020594</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020593</v>
+        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346229</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537387</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199866.3919893416</v>
+        <v>211246.6236465252</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26424,10 +26426,10 @@
         <v>199866.3919893415</v>
       </c>
       <c r="E4" t="n">
-        <v>74852.47981333027</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="F4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
         <v>101012.8540458319</v>
@@ -26448,16 +26450,16 @@
         <v>101012.8540458319</v>
       </c>
       <c r="M4" t="n">
+        <v>101012.8540458319</v>
+      </c>
+      <c r="N4" t="n">
         <v>101012.8540458318</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>101012.8540458319</v>
       </c>
-      <c r="O4" t="n">
-        <v>74852.47981333025</v>
-      </c>
       <c r="P4" t="n">
-        <v>74852.47981333025</v>
+        <v>101012.8540458318</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16885.37543313447</v>
+        <v>419.4584700945998</v>
       </c>
       <c r="C6" t="n">
-        <v>169519.3579816029</v>
+        <v>146112.5243079904</v>
       </c>
       <c r="D6" t="n">
         <v>169519.3579816027</v>
       </c>
       <c r="E6" t="n">
-        <v>113230.0186577049</v>
+        <v>27020.52956218325</v>
       </c>
       <c r="F6" t="n">
-        <v>188560.9698111672</v>
+        <v>242759.8861188238</v>
       </c>
       <c r="G6" t="n">
-        <v>113869.4863072832</v>
+        <v>242759.8861188239</v>
       </c>
       <c r="H6" t="n">
+        <v>242759.8861188238</v>
+      </c>
+      <c r="I6" t="n">
+        <v>242759.8861188238</v>
+      </c>
+      <c r="J6" t="n">
+        <v>116182.617538535</v>
+      </c>
+      <c r="K6" t="n">
+        <v>224113.2857618043</v>
+      </c>
+      <c r="L6" t="n">
         <v>242759.8861188239</v>
       </c>
-      <c r="I6" t="n">
-        <v>242759.886118824</v>
-      </c>
-      <c r="J6" t="n">
-        <v>97226.21618400716</v>
-      </c>
-      <c r="K6" t="n">
-        <v>242759.8861188236</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
+        <v>62696.01466365608</v>
+      </c>
+      <c r="N6" t="n">
         <v>242759.8861188238</v>
       </c>
-      <c r="M6" t="n">
-        <v>179885.9491534498</v>
-      </c>
-      <c r="N6" t="n">
-        <v>242759.8861188237</v>
-      </c>
       <c r="O6" t="n">
-        <v>188560.9698111671</v>
+        <v>242759.8861188238</v>
       </c>
       <c r="P6" t="n">
-        <v>188560.969811167</v>
+        <v>242759.8861188239</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943077</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.299068094308</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>46.25593661269695</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>285.2640442864225</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.3132665360047</v>
+        <v>93.94268159712401</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27587,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>46.25593661269676</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168.7046768117412</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>141.3294527982341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.50789120237593</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28065,19 +28067,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.44967133088767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28788,7 +28790,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>2.304553167390613</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>245.6677613624791</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.5700052857312</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127134</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34863,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>236.5429566883217</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34954,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>245.6677613624788</v>
+      </c>
+      <c r="N6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>349.6900184701286</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,22 +35248,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>155.2981118204434</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>127.785087364149</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099021</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>361.4796159561464</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>743.9884130334502</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.2141688743686</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>462.7739363632869</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>294.9982839840492</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099021</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366211</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937781</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36121,13 +36123,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>928.4912652212506</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>643.7912868918553</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>818.1712833969947</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>981.7058813107108</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N41" t="n">
-        <v>127.7850873641483</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37801,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432935</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>287.4764224063607</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>408.259990793029</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>549.5965063837652</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1373098.50543659</v>
+        <v>1372401.844231498</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114748</v>
+        <v>612367.9462114756</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
@@ -676,7 +676,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>2.053086656941743</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -721,13 +721,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.019853058236</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>70.60344219155097</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>208.444673111662</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>63.45503558037498</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1068,13 +1068,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.7385887424602</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>130.774426990978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1135,25 +1135,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>265.5814252804686</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>76.34947650093977</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1381,16 +1381,16 @@
         <v>421.7171704536211</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924938</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396353</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.3236211855916</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095519</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610192</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486148</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>421.7171704536211</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396353</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>31.4488973636935</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>101.3307376196623</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1852,13 +1852,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2019,10 +2019,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657922</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>422.6317226868337</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.872939992494</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725212</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2298,7 +2298,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>278.894352718055</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>14.12442881973223</v>
       </c>
     </row>
     <row r="23">
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>206.9048608188591</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.8145018883579</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>259.5993285084649</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>153.7099988646849</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3189,7 +3189,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3319,7 +3319,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>240.4192148924135</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3903,10 +3903,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>227.635750397087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>456.8988997477843</v>
+        <v>565.144750168225</v>
       </c>
       <c r="C2" t="n">
-        <v>434.0385738014885</v>
+        <v>542.2844242219292</v>
       </c>
       <c r="D2" t="n">
-        <v>414.7863570268929</v>
+        <v>523.0322074473335</v>
       </c>
       <c r="E2" t="n">
-        <v>392.8498212151545</v>
+        <v>97.05526759519103</v>
       </c>
       <c r="F2" t="n">
-        <v>371.7660434449588</v>
+        <v>75.97148982499533</v>
       </c>
       <c r="G2" t="n">
-        <v>371.4673850748114</v>
+        <v>75.67283145484802</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884623</v>
+        <v>73.59900654884626</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516412</v>
+        <v>880.2445183516418</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516412</v>
+        <v>882.5260259873596</v>
       </c>
       <c r="M2" t="n">
-        <v>880.2445183516412</v>
+        <v>882.5260259873596</v>
       </c>
       <c r="N2" t="n">
-        <v>880.2445183516412</v>
+        <v>882.5260259873596</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873579</v>
+        <v>882.5260259873596</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229786</v>
+        <v>1361.464950229788</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733969</v>
+        <v>1817.550429733971</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489012</v>
+        <v>1830.739470489014</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1609.813899533648</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130058</v>
+        <v>1351.45899013006</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563071</v>
+        <v>993.9695752563093</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566539</v>
+        <v>993.9695752563093</v>
       </c>
       <c r="X2" t="n">
-        <v>589.8986307648053</v>
+        <v>582.2495764240566</v>
       </c>
       <c r="Y2" t="n">
-        <v>472.7068599989103</v>
+        <v>580.952710419351</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>186.1320003124038</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000785</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231744</v>
+        <v>46.14877825422932</v>
       </c>
       <c r="J3" t="n">
-        <v>38.70213529231744</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>425.3664405251914</v>
+        <v>796.7851917762492</v>
       </c>
       <c r="L3" t="n">
-        <v>425.3664405251914</v>
+        <v>1275.724116018678</v>
       </c>
       <c r="M3" t="n">
-        <v>425.3664405251914</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="N3" t="n">
-        <v>425.3664405251914</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="O3" t="n">
-        <v>904.3053647676196</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="P3" t="n">
-        <v>1383.244289010048</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1847.389765872827</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>855.0190971226177</v>
+        <v>620.4965048707389</v>
       </c>
       <c r="C4" t="n">
-        <v>855.0190971226177</v>
+        <v>448.523941749655</v>
       </c>
       <c r="D4" t="n">
-        <v>691.7023242493884</v>
+        <v>448.523941749655</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>448.523941749655</v>
       </c>
       <c r="F4" t="n">
         <v>448.523941749655</v>
@@ -4485,55 +4485,55 @@
         <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231744</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>38.70213529231748</v>
       </c>
       <c r="K4" t="n">
-        <v>322.7210647223126</v>
+        <v>265.2297364981547</v>
       </c>
       <c r="L4" t="n">
-        <v>677.4103860167334</v>
+        <v>619.9190577925755</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381719</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014208</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.507552693971</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615872</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615872</v>
+        <v>1764.971717135009</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841772</v>
+        <v>1554.421542274744</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342076</v>
+        <v>1554.421542274744</v>
       </c>
       <c r="V4" t="n">
-        <v>1129.871500950105</v>
+        <v>1554.421542274744</v>
       </c>
       <c r="W4" t="n">
-        <v>855.0190971226177</v>
+        <v>1279.569138447257</v>
       </c>
       <c r="X4" t="n">
-        <v>855.0190971226177</v>
+        <v>1037.005241893062</v>
       </c>
       <c r="Y4" t="n">
-        <v>855.0190971226177</v>
+        <v>810.6624735828045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>957.7672188505812</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>1798.093053396197</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>983.0186232571439</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>811.0460601360599</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>647.7292872628306</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>481.5210814156841</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>309.6593071902445</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
         <v>328.5171544792433</v>
@@ -4752,25 +4752,25 @@
         <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>1209.361391567402</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>983.0186232571439</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>816.0473031888249</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>793.1869772425291</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>773.9347604679334</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>751.998224656195</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4810,46 +4810,46 @@
         <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>1244.872128276909</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>833.1521294446566</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>831.8552634399509</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L9" t="n">
         <v>1307.021068682275</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4995,19 +4995,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>1896.161171757578</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1621.308767930091</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
-        <v>137.1995846623574</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I11" t="n">
         <v>102.3027134058285</v>
@@ -5050,16 +5050,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
         <v>4997.579335409525</v>
@@ -5068,25 +5068,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5120,28 +5120,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>1021.509065974867</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>608.0932463474637</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0932463474637</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7764734742344</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5682676270879</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="F13" t="n">
-        <v>278.5682676270879</v>
+        <v>201.5586180428797</v>
       </c>
       <c r="G13" t="n">
-        <v>278.5682676270879</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.601983369787</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y13" t="n">
-        <v>798.2592150595294</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C14" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D14" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E14" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F14" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G14" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H14" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623574</v>
       </c>
       <c r="I14" t="n">
         <v>102.3027134058285</v>
@@ -5281,25 +5281,25 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2398.817321261059</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N14" t="n">
-        <v>3375.06837974776</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5308,22 +5308,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>109.7493563677404</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L15" t="n">
-        <v>109.7493563677404</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N15" t="n">
-        <v>939.4897558901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P15" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
         <v>1828.971033901635</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>686.6827951484273</v>
+        <v>615.9842888225114</v>
       </c>
       <c r="C16" t="n">
-        <v>514.7102320273433</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="D16" t="n">
-        <v>514.7102320273433</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="E16" t="n">
-        <v>514.7102320273433</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F16" t="n">
         <v>412.355951603442</v>
@@ -5445,43 +5445,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100492</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976528</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656291</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578192</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818954</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.677127506134</v>
+        <v>2112.580693338089</v>
       </c>
       <c r="T16" t="n">
-        <v>1992.337779732034</v>
+        <v>1869.241345563989</v>
       </c>
       <c r="U16" t="n">
-        <v>1712.153331232338</v>
+        <v>1589.056897064293</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.441863840367</v>
+        <v>1307.345429672322</v>
       </c>
       <c r="W16" t="n">
-        <v>1155.58946001288</v>
+        <v>1032.493025844835</v>
       </c>
       <c r="X16" t="n">
-        <v>913.0255634586853</v>
+        <v>1032.493025844835</v>
       </c>
       <c r="Y16" t="n">
-        <v>686.6827951484273</v>
+        <v>806.1502575345771</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
         <v>435.0679631883225</v>
@@ -5527,16 +5527,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K18" t="n">
-        <v>971.931772215671</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L18" t="n">
-        <v>971.931772215671</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416615</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205775</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205775</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205775</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951378</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>249.79578838937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5676,49 +5676,49 @@
         <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358269</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302477</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025268</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025268</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525573</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133601</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306114</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519194</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416615</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
         <v>2113.800768076616</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5797,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>775.6620294727279</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>603.6894663516439</v>
       </c>
       <c r="D22" t="n">
         <v>440.3726934784146</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672321</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844834</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906393</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>775.6620294727279</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
         <v>2988.069926596602</v>
@@ -6068,16 +6068,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
         <v>1364.825557038856</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6308,25 +6308,25 @@
         <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>612.3940204581201</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>440.421457337036</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751473</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923986</v>
+        <v>1045.12388572438</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369791</v>
+        <v>802.5599891701856</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595328</v>
+        <v>802.5599891701856</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>603.8490191059097</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>431.8764559848257</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6660,13 +6660,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>830.1917874161677</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>603.8490191059097</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M32" t="n">
         <v>2011.818868109901</v>
@@ -6779,25 +6779,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,19 +6946,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6967,7 +6967,7 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7019,25 +7019,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>1013.622061704626</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7113,34 +7113,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044861</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751469</v>
+        <v>1796.528701234342</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1514.817233842371</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1239.964830014884</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1239.964830014884</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>1013.622061704626</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7210,16 +7210,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H41" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I41" t="n">
         <v>102.3027134058285</v>
@@ -7420,19 +7420,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2856.963518260713</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N41" t="n">
-        <v>3833.214576747414</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
         <v>5115.135670291427</v>
@@ -7447,16 +7447,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>357.5299206506891</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M42" t="n">
-        <v>357.5299206506891</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3751.878227437044</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3579.90566431596</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3416.588891442731</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3250.380685595584</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3078.518911370144</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4871.796322517327</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4591.611874017632</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4443.239368286854</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4168.386964459367</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>4168.386964459367</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3942.044196149109</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,13 +7636,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
@@ -7657,10 +7657,10 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O44" t="n">
         <v>3833.214576747414</v>
@@ -7675,10 +7675,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3313.894682672831</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>3313.894682672831</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>3509.456675241458</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>4398.937953252929</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>841.6494985835419</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>841.6494985835419</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>678.3327257103126</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>512.1245198631661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>1310.556163447995</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.9922668938</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>841.6494985835419</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>519.5412919487778</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>40.61659560001468</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
@@ -7993,10 +7993,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>39.69551252341471</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529641992</v>
+        <v>521.3520529641999</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>412.9692391190645</v>
+        <v>506.1759249873018</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>506.291777868198</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>48.85522789279919</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761901</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>505.5475323587966</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8145,7 +8145,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>259.1183965798076</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.3931969178338</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>547.8252218830993</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8236,7 +8236,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8458,7 +8458,7 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
@@ -8467,16 +8467,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
@@ -8698,7 +8698,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8707,10 +8707,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>397.6042905607445</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8768,13 +8768,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,16 +8783,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>426.1551116948253</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>500.1648957193109</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9175,7 +9175,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9248,10 +9248,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9263,10 +9263,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>117.2451261364169</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9716,19 +9716,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,16 +9956,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>426.8993572042261</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10427,28 +10427,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>509.0028996591719</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,7 +10594,7 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>995.9774475394116</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10846,7 +10846,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>791.8999401147988</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766268</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>924.3306556055956</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>791.8596365713911</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11375,10 +11375,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11390,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>66.33105441803268</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500715</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.8039401261796</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -23664,7 +23664,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352291</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415034794</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -24129,10 +24129,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>209.9549118074231</v>
       </c>
     </row>
     <row r="23">
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365871</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>12.50455128074719</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>86.42825872396804</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -25086,16 +25086,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>36.96338912228529</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359623262</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.2643090249419</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212515</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662243.1969233358</v>
+        <v>662243.1969233357</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662243.1969233358</v>
+        <v>662243.1969233357</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>662243.1969233359</v>
+        <v>662243.1969233357</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>662243.1969233358</v>
+        <v>662243.1969233359</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>662243.1969233359</v>
+        <v>662243.1969233358</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083723</v>
+        <v>436832.0010083724</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083722</v>
+        <v>436832.0010083725</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="F2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530851</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530852</v>
       </c>
       <c r="H2" t="n">
         <v>421522.8023530853</v>
       </c>
       <c r="I2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="J2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="K2" t="n">
+        <v>421522.8023530853</v>
+      </c>
+      <c r="L2" t="n">
         <v>421522.8023530854</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>421522.8023530854</v>
       </c>
-      <c r="K2" t="n">
-        <v>421522.8023530856</v>
-      </c>
-      <c r="L2" t="n">
-        <v>421522.8023530855</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>421522.8023530854</v>
+      </c>
+      <c r="O2" t="n">
+        <v>421522.8023530852</v>
+      </c>
+      <c r="P2" t="n">
         <v>421522.8023530853</v>
-      </c>
-      <c r="N2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="O2" t="n">
-        <v>421522.8023530854</v>
-      </c>
-      <c r="P2" t="n">
-        <v>421522.8023530854</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361224</v>
+        <v>23406.83367361206</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701981</v>
+        <v>18646.60035701967</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211246.6236465252</v>
+        <v>211246.6236465251</v>
       </c>
       <c r="C4" t="n">
         <v>199866.3919893415</v>
@@ -26432,19 +26432,19 @@
         <v>101012.8540458318</v>
       </c>
       <c r="G4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="H4" t="n">
         <v>101012.8540458318</v>
       </c>
       <c r="I4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="J4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="K4" t="n">
-        <v>101012.8540458319</v>
+        <v>101012.8540458318</v>
       </c>
       <c r="L4" t="n">
         <v>101012.8540458319</v>
@@ -26453,13 +26453,13 @@
         <v>101012.8540458319</v>
       </c>
       <c r="N4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
       <c r="O4" t="n">
         <v>101012.8540458319</v>
       </c>
       <c r="P4" t="n">
-        <v>101012.8540458318</v>
+        <v>101012.8540458319</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216128</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>419.4584700945998</v>
+        <v>419.4584700945925</v>
       </c>
       <c r="C6" t="n">
-        <v>146112.5243079904</v>
+        <v>146112.5243079908</v>
       </c>
       <c r="D6" t="n">
         <v>169519.3579816027</v>
       </c>
       <c r="E6" t="n">
-        <v>27020.52956218325</v>
+        <v>26969.49889999886</v>
       </c>
       <c r="F6" t="n">
-        <v>242759.8861188238</v>
+        <v>242708.8554566393</v>
       </c>
       <c r="G6" t="n">
-        <v>242759.8861188239</v>
+        <v>242708.8554566394</v>
       </c>
       <c r="H6" t="n">
-        <v>242759.8861188238</v>
+        <v>242708.8554566394</v>
       </c>
       <c r="I6" t="n">
-        <v>242759.8861188238</v>
+        <v>242708.8554566394</v>
       </c>
       <c r="J6" t="n">
-        <v>116182.617538535</v>
+        <v>116131.5868763506</v>
       </c>
       <c r="K6" t="n">
-        <v>224113.2857618043</v>
+        <v>224062.2550996198</v>
       </c>
       <c r="L6" t="n">
-        <v>242759.8861188239</v>
+        <v>242708.8554566395</v>
       </c>
       <c r="M6" t="n">
-        <v>62696.01466365608</v>
+        <v>62644.98400147185</v>
       </c>
       <c r="N6" t="n">
-        <v>242759.8861188238</v>
+        <v>242708.8554566395</v>
       </c>
       <c r="O6" t="n">
-        <v>242759.8861188238</v>
+        <v>242708.8554566393</v>
       </c>
       <c r="P6" t="n">
-        <v>242759.8861188239</v>
+        <v>242708.8554566394</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="C4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539684</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="K4" t="n">
-        <v>72.4511219616262</v>
+        <v>72.45112196162563</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>292.8366080837638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>285.2640442864225</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>93.94268159712401</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>32.46128118469701</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>344.1477632635552</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0.855811266250015</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>141.3294527982341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>155.2915147120251</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>163.7887810877131</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28098,10 +28098,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.155044552563961e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28326,16 +28326,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28392,10 +28392,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-3.047370784833188e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2.851831159473059e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29018,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-3.559329076685164e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.304553167391762</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.304553167390613</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>390.5700052857312</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>483.7766911539685</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>25.75844738047121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34865,7 +34865,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>236.5429566883217</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598474</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O6" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35178,7 +35178,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L9" t="n">
-        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35427,10 +35427,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>361.4796159561464</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>462.7739363632869</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366211</v>
+        <v>395.1371666366142</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35968,10 +35968,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35983,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937781</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36123,16 +36123,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>404.3842704899966</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>487.2320584543432</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>958.5461846399799</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968738</v>
       </c>
       <c r="Q37" t="n">
         <v>128.2829598391535</v>
@@ -37548,7 +37548,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>754.4686772153671</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432935</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>886.8993927061638</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38095,10 +38095,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
